--- a/unanue.xlsx
+++ b/unanue.xlsx
@@ -14,25 +14,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t xml:space="preserve">Fecha</t>
+    <t xml:space="preserve">fecha</t>
   </si>
   <si>
-    <t xml:space="preserve">HR (%)</t>
+    <t xml:space="preserve">hr(%)</t>
   </si>
   <si>
-    <t xml:space="preserve">PM2.5 (ug/m3)</t>
+    <t xml:space="preserve">pm2.5 (ug/m3)</t>
   </si>
   <si>
-    <t xml:space="preserve">PM10 (ug/m3)</t>
+    <t xml:space="preserve">pm10 (ug/m3)</t>
   </si>
   <si>
-    <t xml:space="preserve">Pres (mbar)</t>
+    <t xml:space="preserve">pres (mbar)</t>
   </si>
   <si>
-    <t xml:space="preserve">precip (mm)</t>
+    <t xml:space="preserve">pp (mm)</t>
   </si>
   <si>
-    <t xml:space="preserve">Temp (°C)</t>
+    <t xml:space="preserve">temp (°C)</t>
   </si>
   <si>
     <t xml:space="preserve">wd (°)</t>
